--- a/code/output/mxl_model_WTP_battery.xlsx
+++ b/code/output/mxl_model_WTP_battery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB2B00D-02AB-6C43-A6C8-8B7D6281C201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815DF7DD-D451-5C4C-8B8A-9E426FD75754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="900" windowWidth="28040" windowHeight="16700" activeTab="4" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
   </bookViews>
@@ -588,9 +588,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -610,12 +610,6 @@
       <color rgb="FFC00000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -671,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -686,9 +680,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1958,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C2C3E1-23ED-8F4D-8176-67E98314F078}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/code/output/mxl_model_WTP_battery.xlsx
+++ b/code/output/mxl_model_WTP_battery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815DF7DD-D451-5C4C-8B8A-9E426FD75754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA33EE8C-52F4-CC4D-9F96-6BE6E2AECBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="900" windowWidth="28040" windowHeight="16700" activeTab="4" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
   </bookViews>
@@ -1952,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C2C3E1-23ED-8F4D-8176-67E98314F078}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/code/output/mxl_model_WTP_battery.xlsx
+++ b/code/output/mxl_model_WTP_battery.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA33EE8C-52F4-CC4D-9F96-6BE6E2AECBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99963D79-1160-A745-BB6B-025304D3647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="900" windowWidth="28040" windowHeight="16700" activeTab="4" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
+    <workbookView xWindow="5420" yWindow="680" windowWidth="24460" windowHeight="16700" activeTab="4" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
   </bookViews>
   <sheets>
-    <sheet name="MNL (Preference space)" sheetId="4" r:id="rId1"/>
-    <sheet name="MNL (WTP space)" sheetId="1" r:id="rId2"/>
-    <sheet name="MNL WTP compare" sheetId="5" r:id="rId3"/>
-    <sheet name="MXL (WTP space)_lessSD" sheetId="2" r:id="rId4"/>
-    <sheet name="MXL (WTP space)" sheetId="6" r:id="rId5"/>
+    <sheet name="Apollo_MNL (Preference space)" sheetId="4" r:id="rId1"/>
+    <sheet name="Apollo_MNL (Preference)" sheetId="9" r:id="rId2"/>
+    <sheet name="MNL (WTP space)" sheetId="1" r:id="rId3"/>
+    <sheet name="MNL WTP compare" sheetId="5" r:id="rId4"/>
+    <sheet name="MXL (WTP space)_lessSD" sheetId="2" r:id="rId5"/>
+    <sheet name="MXL (WTP space)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="130">
   <si>
     <t>pref</t>
   </si>
@@ -93,9 +95,6 @@
     <t>wtp</t>
   </si>
   <si>
-    <t>difference</t>
-  </si>
-  <si>
     <t>scalePar</t>
   </si>
   <si>
@@ -132,13 +131,7 @@
     <t xml:space="preserve">                                     </t>
   </si>
   <si>
-    <t>Log-Likelihood:         -2708.7453761</t>
-  </si>
-  <si>
     <t>Null Log-Likelihood:    -3102.5267802</t>
-  </si>
-  <si>
-    <t>AIC:                     5431.4907523</t>
   </si>
   <si>
     <t>BIC:                     5471.4841000</t>
@@ -580,6 +573,201 @@
   </si>
   <si>
     <t>most respondents consistently dislike the refurbished cell replace option; very few will have a positive coefficient.</t>
+  </si>
+  <si>
+    <t>Estimates:</t>
+  </si>
+  <si>
+    <t>s.e.</t>
+  </si>
+  <si>
+    <t>t.rat.(0)</t>
+  </si>
+  <si>
+    <t>p(1-sided)</t>
+  </si>
+  <si>
+    <t>Rob.s.e.</t>
+  </si>
+  <si>
+    <t>Rob.t.rat.(0)</t>
+  </si>
+  <si>
+    <t>b_mileage</t>
+  </si>
+  <si>
+    <t>b_range_year0</t>
+  </si>
+  <si>
+    <t>b_degradation</t>
+  </si>
+  <si>
+    <t>b_packreplace</t>
+  </si>
+  <si>
+    <t>b_cellreplace</t>
+  </si>
+  <si>
+    <t>logitr</t>
+  </si>
+  <si>
+    <t>apollo</t>
+  </si>
+  <si>
+    <t>asc_no_choice</t>
+  </si>
+  <si>
+    <t>b_price</t>
+  </si>
+  <si>
+    <t>Model without mixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MNL_DCE_preference_space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model description                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MNL model in preference-space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model run at                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2025-11-03 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation method                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model diagnosis                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relative function convergence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisation diagnosis                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maximum found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     hessian properties                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Negative definite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     maximum eigenvalue                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     reciprocal of condition number         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of individuals                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of rows in database                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of modelled outcomes                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores used                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL(start)                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL at equal shares, LL(0)                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL at observed shares, LL(C)                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL(final)                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rho-squared vs equal shares                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj.Rho-squared vs equal shares              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rho-squared vs observed shares               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adj.Rho-squared vs observed shares           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIC                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIC                                         </t>
+  </si>
+  <si>
+    <t>Model Coefficients</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Signif. codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
+  </si>
+  <si>
+    <t>Log-Likelihood</t>
+  </si>
+  <si>
+    <t>Null Log-Likelihood</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>McFadden R2</t>
+  </si>
+  <si>
+    <t>Adj McFadden R2</t>
+  </si>
+  <si>
+    <t>Number of Observations</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>Std.</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Refurbished EV batteries do NOT perform and function as original EV batteries.</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
   </si>
 </sst>
 </file>
@@ -590,7 +778,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -621,6 +809,19 @@
       <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -661,13 +862,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -686,6 +885,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,219 +1254,249 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5873D6C5-CA58-9948-87F6-3771A0BD0381}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>-0.180007</v>
-      </c>
-      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15">
+        <v>-0.180009</v>
+      </c>
+      <c r="C3" s="15">
         <v>2.4830000000000001E-2</v>
       </c>
-      <c r="D3">
-        <v>-7.2496999999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.1769999999999998E-13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
+      <c r="D3" s="15">
+        <v>-7.2497999999999996</v>
+      </c>
+      <c r="E3" s="15">
+        <v>4.1740000000000002E-13</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>-0.26925700000000002</v>
-      </c>
-      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="15">
+        <v>-0.26925900000000003</v>
+      </c>
+      <c r="C4" s="15">
         <v>3.8856000000000002E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>-6.9295999999999998</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="15">
         <v>4.2200000000000002E-12</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
+      <c r="F4" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.43724499999999999</v>
-      </c>
-      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.43724400000000002</v>
+      </c>
+      <c r="C5" s="15">
         <v>5.1194000000000003E-2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
         <v>8.5410000000000004</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
+      <c r="E5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>-0.248445</v>
-      </c>
-      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>-0.248443</v>
+      </c>
+      <c r="C6" s="15">
         <v>1.342E-2</v>
       </c>
-      <c r="D6">
-        <v>-18.512899999999998</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
+      <c r="D6" s="15">
+        <v>-18.512799999999999</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>-0.31742199999999998</v>
-      </c>
-      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15">
+        <v>-0.31741399999999997</v>
+      </c>
+      <c r="C7" s="15">
         <v>6.8989999999999996E-2</v>
       </c>
-      <c r="D7">
-        <v>-4.601</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.2050000000000004E-6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
+      <c r="D7" s="15">
+        <v>-4.6009000000000002</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4.2080000000000002E-6</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>-0.39116499999999998</v>
-      </c>
-      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15">
+        <v>-0.39115899999999998</v>
+      </c>
+      <c r="C8" s="15">
         <v>6.9182999999999995E-2</v>
       </c>
-      <c r="D8">
-        <v>-5.6540999999999997</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.5670000000000001E-8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
+      <c r="D8" s="15">
+        <v>-5.6539999999999999</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1.5679999999999999E-8</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>-2.3026879999999998</v>
-      </c>
-      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15">
+        <v>-2.3026960000000001</v>
+      </c>
+      <c r="C9" s="15">
         <v>0.226659</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
         <v>-10.1593</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
+      <c r="E9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>115</v>
+      </c>
+      <c r="B13">
+        <v>-2708.7453761000002</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <v>-3102.5267801999998</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>5431.4907523000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="B16">
+        <v>5471.4840999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="B17">
+        <v>0.1269228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="B18">
+        <v>0.1246666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>121</v>
+      </c>
+      <c r="B19">
+        <v>2238</v>
       </c>
     </row>
   </sheetData>
@@ -1268,11 +1505,435 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED36E36-06EA-2D4A-8F8A-37A002B2072F}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView zoomScale="158" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="8" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="15">
+        <v>2.1170000000000001E-2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2.911E-2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.23351</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3.2070000000000001E-2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.6603</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0.25453399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="15">
+        <v>-8.4059999999999996E-2</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2.2870000000000001E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>-3.6751999999999998</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.1883999999999999E-4</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5.901E-2</v>
+      </c>
+      <c r="G4" s="15">
+        <v>-1.4245000000000001</v>
+      </c>
+      <c r="H4" s="15">
+        <v>7.7151999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.22944000000000001</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4.5679999999999998E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>5.0225999999999997</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2.5489999999999999E-7</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5.3940000000000002E-2</v>
+      </c>
+      <c r="G5" s="15">
+        <v>4.2534999999999998</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1.0519999999999999E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="15">
+        <v>-6.0639999999999999E-2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.541E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>-3.9361000000000002</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.1409999999999998E-5</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1.5480000000000001E-2</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-3.9180000000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4.464E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="15">
+        <v>-0.36864999999999998</v>
+      </c>
+      <c r="C7" s="15">
+        <v>9.0120000000000006E-2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>-4.0907999999999998</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2.1489999999999999E-5</v>
+      </c>
+      <c r="F7" s="15">
+        <v>9.8290000000000002E-2</v>
+      </c>
+      <c r="G7" s="15">
+        <v>-3.7505000000000002</v>
+      </c>
+      <c r="H7" s="15">
+        <v>8.8239999999999995E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="15">
+        <v>-0.26269999999999999</v>
+      </c>
+      <c r="C8" s="15">
+        <v>9.1829999999999995E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>-2.8609</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2.1120000000000002E-3</v>
+      </c>
+      <c r="F8" s="15">
+        <v>9.7360000000000002E-2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>-2.6981000000000002</v>
+      </c>
+      <c r="H8" s="15">
+        <v>3.4859999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="15">
+        <v>-0.86951000000000001</v>
+      </c>
+      <c r="C9" s="15">
+        <v>6.2260000000000003E-2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>-13.9651</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0.10704</v>
+      </c>
+      <c r="G9" s="15">
+        <v>-8.1231000000000009</v>
+      </c>
+      <c r="H9" s="15">
+        <v>2.2200000000000001E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="15">
+        <v>57</v>
+      </c>
+      <c r="D14" s="15">
+        <v>31.904548999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="15">
+        <v>-77.090168000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1.9451500000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="15">
+        <v>8952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="15">
+        <v>8952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="15">
+        <v>-12410.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="15">
+        <v>-12410.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="15">
+        <v>-11980.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="15">
+        <v>-11957.39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="15">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="15">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="15">
+        <v>23928.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="15">
+        <v>23978.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98044D3-FF48-F949-BEDB-50C8FB71579F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,26 +1944,26 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.26928999999999997</v>
@@ -1317,12 +1978,12 @@
         <v>4.1070000000000002E-12</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>-0.66856599999999999</v>
@@ -1337,12 +1998,12 @@
         <v>4.9770000000000002E-7</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1.6232279999999999</v>
@@ -1357,12 +2018,12 @@
         <v>6.8709999999999998E-8</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>-0.92255200000000004</v>
@@ -1377,12 +2038,12 @@
         <v>7.1729999999999994E-11</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>-1.179014</v>
@@ -1397,12 +2058,12 @@
         <v>1.195E-4</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>-1.452915</v>
@@ -1417,12 +2078,12 @@
         <v>1.1209999999999999E-5</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-8.5530190000000008</v>
@@ -1434,209 +2095,61 @@
         <v>-8.3278999999999996</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B3222-C801-E043-841A-9324DF72711D}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-0.66853189999999996</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.26928970000000002</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.93782158999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.26925729999999998</v>
-      </c>
-      <c r="C3" s="5">
-        <v>-0.66856599999999999</v>
-      </c>
-      <c r="D3" s="5">
-        <v>-0.93782325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.6238931999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6232283000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-6.6496999999999997E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-0.92270399999999997</v>
-      </c>
-      <c r="C5" s="2">
-        <v>-0.92255169999999997</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.5233E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-1.1788794</v>
-      </c>
-      <c r="C6" s="2">
-        <v>-1.1790134999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-1.3406E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-1.4527574000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>-1.4529145000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-1.5714E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-8.5519996999999996</v>
-      </c>
-      <c r="C8" s="2">
-        <v>-8.5530190000000008</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-1.01928E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-2708.7453761000002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>-2708.7453819000002</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-5.7799999999999997E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1644,11 +2157,191 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B3222-C801-E043-841A-9324DF72711D}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14">
+        <v>0.26928970000000002</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13">
+        <v>8.4059999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>-0.66853189999999996</v>
+      </c>
+      <c r="C4" s="14">
+        <v>-0.66856599999999999</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13">
+        <v>0.25190000000000001</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.25190000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.6238931999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.6232283000000001</v>
+      </c>
+      <c r="E5">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="F5">
+        <v>2.7290000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.92270399999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.92255169999999997</v>
+      </c>
+      <c r="E6">
+        <v>-0.72140000000000004</v>
+      </c>
+      <c r="F6">
+        <v>-0.72140000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-1.1788794</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1.1790134999999999</v>
+      </c>
+      <c r="E7">
+        <v>-4.3860000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-4.3860000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1.4527574000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1.4529145000000001</v>
+      </c>
+      <c r="E8">
+        <v>-3.125</v>
+      </c>
+      <c r="F8">
+        <v>-3.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-8.5519996999999996</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-8.5530190000000008</v>
+      </c>
+      <c r="E9">
+        <v>-10.34</v>
+      </c>
+      <c r="F9">
+        <v>-10.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-2708.7453761000002</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-2708.7453819000002</v>
+      </c>
+      <c r="E10">
+        <v>-11957.39</v>
+      </c>
+      <c r="F10">
+        <v>-11957.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263ECF5B-770C-B54D-A122-56F31E5F4471}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,34 +2350,34 @@
     <col min="2" max="2" width="10.83203125" style="3"/>
     <col min="3" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="6.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="75.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>37</v>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>0.67381000000000002</v>
@@ -1699,15 +2392,15 @@
         <v>4.4450000000000003E-9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>-0.35072900000000001</v>
@@ -1722,15 +2415,15 @@
         <v>7.6269999999999994E-8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>0.78077200000000002</v>
@@ -1745,15 +2438,15 @@
         <v>2.0719999999999998E-6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>-0.54600099999999996</v>
@@ -1768,15 +2461,15 @@
         <v>2.602E-12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>-0.52132199999999995</v>
@@ -1791,15 +2484,15 @@
         <v>4.3960000000000001E-4</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>-0.71137600000000001</v>
@@ -1814,15 +2507,15 @@
         <v>1.0550000000000001E-5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>-10.387777</v>
@@ -1834,20 +2527,20 @@
         <v>-11.3683</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="10">
+        <v>32</v>
+      </c>
+      <c r="B10" s="8">
         <v>1.9714389999999999</v>
       </c>
       <c r="C10" s="2">
@@ -1860,15 +2553,15 @@
         <v>2.5759999999999999E-14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3">
         <v>0.55581700000000001</v>
@@ -1883,63 +2576,63 @@
         <v>5.7450000000000003E-10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="H14" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1948,12 +2641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C2C3E1-23ED-8F4D-8176-67E98314F078}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1962,34 +2655,34 @@
     <col min="2" max="2" width="10.83203125" style="3"/>
     <col min="3" max="5" width="10.83203125" style="2"/>
     <col min="6" max="6" width="6.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="75.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>37</v>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>0.72178299999999995</v>
@@ -2004,15 +2697,15 @@
         <v>1.7920000000000001E-8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>-0.36879000000000001</v>
@@ -2027,15 +2720,15 @@
         <v>1.3370000000000001E-7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>0.75517800000000002</v>
@@ -2050,15 +2743,15 @@
         <v>1.409E-6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>-0.53311900000000001</v>
@@ -2073,17 +2766,17 @@
         <v>1.052E-12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
         <v>-0.72192699999999999</v>
       </c>
       <c r="C7" s="2">
@@ -2096,15 +2789,15 @@
         <v>1.181E-3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>-0.71375200000000005</v>
@@ -2119,15 +2812,15 @@
         <v>2.2850000000000001E-3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>-10.304404999999999</v>
@@ -2139,20 +2832,20 @@
         <v>-11.6393</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="12">
+        <v>48</v>
+      </c>
+      <c r="B10" s="10">
         <v>-0.25922000000000001</v>
       </c>
       <c r="C10" s="2">
@@ -2164,13 +2857,13 @@
       <c r="E10" s="2">
         <v>0.138354</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>65</v>
+      <c r="G10" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3">
         <v>1.903621</v>
@@ -2185,15 +2878,15 @@
         <v>7.6829999999999999E-14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3">
         <v>0.54768399999999995</v>
@@ -2208,17 +2901,17 @@
         <v>4.2029999999999999E-10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="12">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10">
         <v>-0.91086599999999995</v>
       </c>
       <c r="C13" s="2">
@@ -2230,15 +2923,15 @@
       <c r="E13" s="2">
         <v>0.14557899999999999</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>66</v>
+      <c r="G13" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="12">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10">
         <v>-0.13042100000000001</v>
       </c>
       <c r="C14" s="2">
@@ -2250,73 +2943,410 @@
       <c r="E14" s="2">
         <v>0.87128899999999998</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="6"/>
+      <c r="G14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8C5D7-023B-A24A-A4B7-98ECE74BA2E4}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15">
+        <v>-3.0818999999999999E-2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>5.0745999999999999E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>-0.60729999999999995</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.54359999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15">
+        <v>7.050643</v>
+      </c>
+      <c r="C7" s="15">
+        <v>11.660556</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.5454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15">
+        <v>-11.627165</v>
+      </c>
+      <c r="C8" s="15">
+        <v>19.335398999999999</v>
+      </c>
+      <c r="D8" s="15">
+        <v>-0.60129999999999995</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.54759999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15">
+        <v>8.6318669999999997</v>
+      </c>
+      <c r="C9" s="15">
+        <v>14.213297000000001</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.54359999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="15">
+        <v>11.883760000000001</v>
+      </c>
+      <c r="C10" s="15">
+        <v>20.045760999999999</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.59279999999999999</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.55330000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="15">
+        <v>8.3061109999999996</v>
+      </c>
+      <c r="C11" s="15">
+        <v>14.545089000000001</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0.57110000000000005</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.56799999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="15">
+        <v>61.178925</v>
+      </c>
+      <c r="C12" s="15">
+        <v>106.41068300000001</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.56530000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.31351000000000001</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.12925</v>
+      </c>
+      <c r="D17" s="15">
+        <v>2.4257</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1.528E-2</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15">
+        <v>-0.80630000000000002</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.40377000000000002</v>
+      </c>
+      <c r="D18" s="15">
+        <v>-1.9968999999999999</v>
+      </c>
+      <c r="E18" s="15">
+        <v>4.5831999999999998E-2</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.37179000000000001</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.53051000000000004</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0.70079999999999998</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.48341000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="15">
+        <v>-0.64756999999999998</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.29574</v>
+      </c>
+      <c r="D20" s="15">
+        <v>-2.1897000000000002</v>
+      </c>
+      <c r="E20" s="15">
+        <v>2.8545999999999998E-2</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="15">
+        <v>-1.06494</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.79986000000000002</v>
+      </c>
+      <c r="D21" s="15">
+        <v>-1.3313999999999999</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.18305199999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="15">
+        <v>-1.0110600000000001</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.79154999999999998</v>
+      </c>
+      <c r="D22" s="15">
+        <v>-1.2773000000000001</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.201488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="15">
+        <v>-11.22622</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="D23" s="15">
+        <v>-3.0081000000000002</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2.6289999999999998E-3</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code/output/mxl_model_WTP_battery.xlsx
+++ b/code/output/mxl_model_WTP_battery.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99963D79-1160-A745-BB6B-025304D3647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0A8AC3-1A84-3140-89FF-7DDCFD250B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="680" windowWidth="24460" windowHeight="16700" activeTab="4" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
+    <workbookView xWindow="1880" yWindow="2440" windowWidth="25880" windowHeight="15400" activeTab="6" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
   </bookViews>
   <sheets>
-    <sheet name="Apollo_MNL (Preference space)" sheetId="4" r:id="rId1"/>
+    <sheet name="logitr_MNL (Preference)" sheetId="4" r:id="rId1"/>
     <sheet name="Apollo_MNL (Preference)" sheetId="9" r:id="rId2"/>
     <sheet name="MNL (WTP space)" sheetId="1" r:id="rId3"/>
     <sheet name="MNL WTP compare" sheetId="5" r:id="rId4"/>
     <sheet name="MXL (WTP space)_lessSD" sheetId="2" r:id="rId5"/>
     <sheet name="MXL (WTP space)" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="140">
   <si>
     <t>pref</t>
   </si>
@@ -608,12 +608,6 @@
     <t>b_cellreplace</t>
   </si>
   <si>
-    <t>logitr</t>
-  </si>
-  <si>
-    <t>apollo</t>
-  </si>
-  <si>
     <t>asc_no_choice</t>
   </si>
   <si>
@@ -746,28 +740,64 @@
     <t>Number of Observations</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>Std.</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Refurbished EV batteries do NOT perform and function as original EV batteries.</t>
-  </si>
-  <si>
-    <t>Agree</t>
-  </si>
-  <si>
-    <t>Disagree</t>
+    <t>mileage</t>
+  </si>
+  <si>
+    <t>range_year0</t>
+  </si>
+  <si>
+    <t>degradation</t>
+  </si>
+  <si>
+    <t>packreplace</t>
+  </si>
+  <si>
+    <t>cellreplace</t>
+  </si>
+  <si>
+    <t>class_1</t>
+  </si>
+  <si>
+    <t>class_2</t>
+  </si>
+  <si>
+    <t>class_3</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>class_allocation</t>
+  </si>
+  <si>
+    <t>ATT_EVB_environment</t>
+  </si>
+  <si>
+    <t>ATT_EVB_function</t>
+  </si>
+  <si>
+    <t>FA_EV_benefit</t>
+  </si>
+  <si>
+    <t>FA_EV_anxiety</t>
+  </si>
+  <si>
+    <t>Showing 1 to 3 of 3 entries, 5 total columns</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>next_veh_fuel_used_bev</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>class_4</t>
   </si>
 </sst>
 </file>
@@ -778,7 +808,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -812,15 +842,28 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -859,10 +902,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -885,17 +929,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1255,7 +1308,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1265,10 +1318,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1289,19 +1342,19 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>-0.180009</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>2.4830000000000001E-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>-7.2497999999999996</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>4.1740000000000002E-13</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1309,19 +1362,19 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>-0.26925900000000003</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>3.8856000000000002E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>-6.9295999999999998</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>4.2200000000000002E-12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1329,19 +1382,19 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>0.43724400000000002</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>5.1194000000000003E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>8.5410000000000004</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1349,19 +1402,19 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>-0.248443</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>1.342E-2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>-18.512799999999999</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1369,19 +1422,19 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>-0.31741399999999997</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>6.8989999999999996E-2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>-4.6009000000000002</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>4.2080000000000002E-6</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1389,19 +1442,19 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>-0.39115899999999998</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>6.9182999999999995E-2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>-5.6539999999999999</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>1.5679999999999999E-8</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1409,19 +1462,19 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>-2.3026960000000001</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>0.226659</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>-10.1593</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1432,10 +1485,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1445,7 +1498,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B13">
         <v>-2708.7453761000002</v>
@@ -1453,7 +1506,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B14">
         <v>-3102.5267801999998</v>
@@ -1461,7 +1514,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>5431.4907523000002</v>
@@ -1469,34 +1522,38 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16">
         <v>5471.4840999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <v>0.1269228</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18">
         <v>0.1246666</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19">
         <v>2238</v>
+      </c>
+      <c r="C19">
+        <f>B19/24</f>
+        <v>93.25</v>
       </c>
     </row>
   </sheetData>
@@ -1509,13 +1566,13 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="8" width="10.83203125" style="15"/>
+    <col min="2" max="8" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1524,25 +1581,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1550,51 +1607,51 @@
       <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>2.1170000000000001E-2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>2.911E-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>0.72729999999999995</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>0.23351</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>3.2070000000000001E-2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="12">
         <v>0.6603</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="12">
         <v>0.25453399999999998</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="15">
+        <v>77</v>
+      </c>
+      <c r="B4" s="12">
         <v>-8.4059999999999996E-2</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>2.2870000000000001E-2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>-3.6751999999999998</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>1.1883999999999999E-4</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <v>5.901E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>-1.4245000000000001</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="12">
         <v>7.7151999999999998E-2</v>
       </c>
     </row>
@@ -1602,25 +1659,25 @@
       <c r="A5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>0.22944000000000001</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>4.5679999999999998E-2</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>5.0225999999999997</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>2.5489999999999999E-7</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <v>5.3940000000000002E-2</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>4.2534999999999998</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="12">
         <v>1.0519999999999999E-5</v>
       </c>
     </row>
@@ -1628,25 +1685,25 @@
       <c r="A6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>-6.0639999999999999E-2</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>1.541E-2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>-3.9361000000000002</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>4.1409999999999998E-5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>1.5480000000000001E-2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>-3.9180000000000001</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>4.464E-5</v>
       </c>
     </row>
@@ -1654,25 +1711,25 @@
       <c r="A7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>-0.36864999999999998</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>9.0120000000000006E-2</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>-4.0907999999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>2.1489999999999999E-5</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>9.8290000000000002E-2</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>-3.7505000000000002</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <v>8.8239999999999995E-5</v>
       </c>
     </row>
@@ -1680,246 +1737,246 @@
       <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>-0.26269999999999999</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>9.1829999999999995E-2</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>-2.8609</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>2.1120000000000002E-3</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>9.7360000000000002E-2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>-2.6981000000000002</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="12">
         <v>3.4859999999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="15">
+        <v>76</v>
+      </c>
+      <c r="B9" s="12">
         <v>-0.86951000000000001</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>6.2260000000000003E-2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>-13.9651</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <v>0.10704</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>-8.1231000000000009</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>2.2200000000000001E-16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="15">
+        <v>83</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="12">
         <v>57</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>31.904548999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="15">
+        <v>93</v>
+      </c>
+      <c r="B19" s="12">
         <v>-77.090168000000006</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="15">
+        <v>94</v>
+      </c>
+      <c r="B20" s="12">
         <v>1.9451500000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="15">
+        <v>95</v>
+      </c>
+      <c r="B21" s="12">
         <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="15">
+        <v>96</v>
+      </c>
+      <c r="B22" s="12">
         <v>8952</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="15">
+        <v>97</v>
+      </c>
+      <c r="B23" s="12">
         <v>8952</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="15">
+        <v>98</v>
+      </c>
+      <c r="B25" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="15">
+        <v>99</v>
+      </c>
+      <c r="B28" s="12">
         <v>-12410.11</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="15">
+        <v>100</v>
+      </c>
+      <c r="B29" s="12">
         <v>-12410.11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="15">
+        <v>101</v>
+      </c>
+      <c r="B30" s="12">
         <v>-11980.16</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="15">
+        <v>102</v>
+      </c>
+      <c r="B31" s="12">
         <v>-11957.39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="15">
+        <v>103</v>
+      </c>
+      <c r="B32" s="12">
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="15">
+        <v>104</v>
+      </c>
+      <c r="B33" s="12">
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="15">
+        <v>105</v>
+      </c>
+      <c r="B34" s="12">
         <v>1.9E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="15">
+        <v>106</v>
+      </c>
+      <c r="B35" s="12">
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="15">
+        <v>107</v>
+      </c>
+      <c r="B36" s="12">
         <v>23928.77</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="15">
+        <v>108</v>
+      </c>
+      <c r="B37" s="12">
         <v>23978.47</v>
       </c>
     </row>
@@ -2158,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B3222-C801-E043-841A-9324DF72711D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A2" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2169,169 +2226,124 @@
     <col min="1" max="1" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="E1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14">
+      <c r="C2" s="2">
         <v>0.26928970000000002</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13">
-        <v>8.4059999999999996E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B3" s="2">
         <v>-0.66853189999999996</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C3" s="2">
         <v>-0.66856599999999999</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13">
-        <v>0.25190000000000001</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0.25190000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" s="13">
+        <f>C3*10000</f>
+        <v>-6685.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.6238931999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.6232283000000001</v>
+      </c>
+      <c r="D4" s="13">
+        <f t="shared" ref="D4:D8" si="0">C4*10000</f>
+        <v>16232.283000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1.6238931999999999</v>
+        <v>-0.92270399999999997</v>
       </c>
       <c r="C5" s="2">
-        <v>1.6232283000000001</v>
-      </c>
-      <c r="E5">
-        <v>2.7290000000000001</v>
-      </c>
-      <c r="F5">
-        <v>2.7290000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-0.92255169999999997</v>
+      </c>
+      <c r="D5" s="13">
+        <f t="shared" si="0"/>
+        <v>-9225.5169999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>-0.92270399999999997</v>
+        <v>-1.1788794</v>
       </c>
       <c r="C6" s="2">
-        <v>-0.92255169999999997</v>
-      </c>
-      <c r="E6">
-        <v>-0.72140000000000004</v>
-      </c>
-      <c r="F6">
-        <v>-0.72140000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.1790134999999999</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" si="0"/>
+        <v>-11790.135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>-1.1788794</v>
+        <v>-1.4527574000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>-1.1790134999999999</v>
-      </c>
-      <c r="E7">
-        <v>-4.3860000000000001</v>
-      </c>
-      <c r="F7">
-        <v>-4.3860000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.4529145000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>-14529.145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>-1.4527574000000001</v>
+        <v>-8.5519996999999996</v>
       </c>
       <c r="C8" s="2">
-        <v>-1.4529145000000001</v>
-      </c>
-      <c r="E8">
-        <v>-3.125</v>
-      </c>
-      <c r="F8">
-        <v>-3.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-8.5530190000000008</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>-85530.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>-8.5519996999999996</v>
+        <v>-2708.7453761000002</v>
       </c>
       <c r="C9" s="2">
-        <v>-8.5530190000000008</v>
-      </c>
-      <c r="E9">
-        <v>-10.34</v>
-      </c>
-      <c r="F9">
-        <v>-10.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-2708.7453761000002</v>
-      </c>
-      <c r="C10" s="2">
         <v>-2708.7453819000002</v>
       </c>
-      <c r="E10">
-        <v>-11957.39</v>
-      </c>
-      <c r="F10">
-        <v>-11957.39</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2340,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263ECF5B-770C-B54D-A122-56F31E5F4471}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2645,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C2C3E1-23ED-8F4D-8176-67E98314F078}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A4" zoomScale="140" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3015,338 +3027,364 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8C5D7-023B-A24A-A4B7-98ECE74BA2E4}">
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C410A7-8855-C745-A45F-66147B214673}">
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="14.83203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="10.83203125" style="16"/>
+    <col min="4" max="4" width="14.1640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="17" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="17"/>
+    <col min="12" max="12" width="14.83203125" style="17" customWidth="1"/>
+    <col min="13" max="15" width="10.83203125" style="17"/>
+    <col min="16" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="J1" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="G2" s="17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="H2" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.1772</v>
+      </c>
+      <c r="C3" s="21">
+        <f>B3*372</f>
+        <v>65.918400000000005</v>
+      </c>
+      <c r="D3" s="17">
+        <v>0.65003739999999999</v>
+      </c>
+      <c r="E3" s="17">
+        <v>-2.271204</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.90132829000000003</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3.95712149</v>
+      </c>
+      <c r="H3" s="17">
+        <v>3.8451149</v>
+      </c>
+      <c r="J3" s="18">
+        <v>-0.39437</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0.41982776999999999</v>
+      </c>
+      <c r="L3" s="18">
+        <v>2</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0.3886</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" ref="C4:C6" si="0">B4*372</f>
+        <v>144.5592</v>
+      </c>
+      <c r="D4" s="17">
+        <v>-0.9654355</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3.9748670000000002</v>
+      </c>
+      <c r="F4" s="17">
+        <v>-3.9763979999999997E-2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>-1.2284141500000001</v>
+      </c>
+      <c r="H4" s="17">
+        <v>-1.9799268999999999</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0.16613530000000001</v>
+      </c>
+      <c r="K4" s="18">
+        <v>-0.29613158000000001</v>
+      </c>
+      <c r="L4" s="18">
+        <v>2.8913039999999999</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19">
+        <v>1</v>
+      </c>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="B5" s="24">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>53.01</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.34968529999999998</v>
+      </c>
+      <c r="E5" s="17">
+        <v>-2.7225920000000001</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.45885195000000001</v>
+      </c>
+      <c r="G5" s="17">
+        <v>-4.6759340000000003E-2</v>
+      </c>
+      <c r="H5" s="17">
+        <v>-0.32098959999999999</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0.1629139</v>
+      </c>
+      <c r="K5" s="18">
+        <v>-3.12401E-3</v>
+      </c>
+      <c r="L5" s="18">
+        <v>2.528302</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="15">
-        <v>-3.0818999999999999E-2</v>
-      </c>
-      <c r="C6" s="15">
-        <v>5.0745999999999999E-2</v>
-      </c>
-      <c r="D6" s="15">
-        <v>-0.60729999999999995</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.54359999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>108.5124</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.4220381</v>
+      </c>
+      <c r="E6" s="17">
+        <v>5.8705629999999998</v>
+      </c>
+      <c r="F6" s="17">
+        <v>-3.4632726699999998</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1.1389147500000001</v>
+      </c>
+      <c r="H6" s="17">
+        <v>-0.39116719999999999</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.2890162</v>
+      </c>
+      <c r="K6" s="18">
+        <v>-8.5659849999999996E-2</v>
+      </c>
+      <c r="L6" s="18">
         <v>3</v>
       </c>
-      <c r="B7" s="15">
-        <v>7.050643</v>
-      </c>
-      <c r="C7" s="15">
-        <v>11.660556</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.60470000000000002</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.5454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15">
-        <v>-11.627165</v>
-      </c>
-      <c r="C8" s="15">
-        <v>19.335398999999999</v>
-      </c>
-      <c r="D8" s="15">
-        <v>-0.60129999999999995</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.54759999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="15">
-        <v>8.6318669999999997</v>
-      </c>
-      <c r="C9" s="15">
-        <v>14.213297000000001</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.60729999999999995</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.54359999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15">
-        <v>11.883760000000001</v>
-      </c>
-      <c r="C10" s="15">
-        <v>20.045760999999999</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.59279999999999999</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.55330000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="15">
-        <v>8.3061109999999996</v>
-      </c>
-      <c r="C11" s="15">
-        <v>14.545089000000001</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.57110000000000005</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="15">
-        <v>61.178925</v>
-      </c>
-      <c r="C12" s="15">
-        <v>106.41068300000001</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.57489999999999997</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.56530000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="15">
-        <v>0.31351000000000001</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.12925</v>
-      </c>
-      <c r="D17" s="15">
-        <v>2.4257</v>
-      </c>
-      <c r="E17" s="15">
-        <v>1.528E-2</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="O6" s="19">
         <v>3</v>
       </c>
-      <c r="B18" s="15">
-        <v>-0.80630000000000002</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.40377000000000002</v>
-      </c>
-      <c r="D18" s="15">
-        <v>-1.9968999999999999</v>
-      </c>
-      <c r="E18" s="15">
-        <v>4.5831999999999998E-2</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="15">
-        <v>0.37179000000000001</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0.53051000000000004</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.70079999999999998</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0.48341000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="15">
-        <v>-0.64756999999999998</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0.29574</v>
-      </c>
-      <c r="D20" s="15">
-        <v>-2.1897000000000002</v>
-      </c>
-      <c r="E20" s="15">
-        <v>2.8545999999999998E-2</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="15">
-        <v>-1.06494</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0.79986000000000002</v>
-      </c>
-      <c r="D21" s="15">
-        <v>-1.3313999999999999</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.18305199999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="15">
-        <v>-1.0110600000000001</v>
-      </c>
-      <c r="C22" s="15">
-        <v>0.79154999999999998</v>
-      </c>
-      <c r="D22" s="15">
-        <v>-1.2773000000000001</v>
-      </c>
-      <c r="E22" s="15">
-        <v>0.201488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="15">
-        <v>-11.22622</v>
-      </c>
-      <c r="C23" s="15">
-        <v>3.7320000000000002</v>
-      </c>
-      <c r="D23" s="15">
-        <v>-3.0081000000000002</v>
-      </c>
-      <c r="E23" s="15">
-        <v>2.6289999999999998E-3</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="P6" s="22"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O7" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="J21" s="18"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/code/output/mxl_model_WTP_battery.xlsx
+++ b/code/output/mxl_model_WTP_battery.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xnw17/Documents/GitHub/Conjoint_Survey_25/code/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0A8AC3-1A84-3140-89FF-7DDCFD250B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D7D16-0026-7B4A-B494-7677CE081B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2440" windowWidth="25880" windowHeight="15400" activeTab="6" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
+    <workbookView xWindow="4100" yWindow="9820" windowWidth="25880" windowHeight="15020" activeTab="6" xr2:uid="{A9909137-D575-224B-A76F-FCE69DCC6739}"/>
   </bookViews>
   <sheets>
     <sheet name="logitr_MNL (Preference)" sheetId="4" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="152">
   <si>
     <t>pref</t>
   </si>
@@ -767,6 +767,15 @@
     <t>share</t>
   </si>
   <si>
+    <t>Class_1</t>
+  </si>
+  <si>
+    <t>Class_2</t>
+  </si>
+  <si>
+    <t>Class_3</t>
+  </si>
+  <si>
     <t>class_allocation</t>
   </si>
   <si>
@@ -782,7 +791,13 @@
     <t>FA_EV_anxiety</t>
   </si>
   <si>
-    <t>Showing 1 to 3 of 3 entries, 5 total columns</t>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
   </si>
   <si>
     <t>n</t>
@@ -791,13 +806,34 @@
     <t>next_veh_fuel_used_bev</t>
   </si>
   <si>
-    <t>Attributes</t>
+    <t>Showing 1 to 3 of 3 entries, 6 total columns</t>
   </si>
   <si>
     <t>Indicators</t>
   </si>
   <si>
     <t>class_4</t>
+  </si>
+  <si>
+    <t>Class_4</t>
+  </si>
+  <si>
+    <t>Class_5</t>
+  </si>
+  <si>
+    <t>Class_6</t>
+  </si>
+  <si>
+    <t>Class_7</t>
+  </si>
+  <si>
+    <t>Class_8</t>
+  </si>
+  <si>
+    <t>Attributes (WTP)</t>
+  </si>
+  <si>
+    <t>no choice</t>
   </si>
 </sst>
 </file>
@@ -808,7 +844,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -848,6 +884,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Lucida Grande"/>
@@ -860,14 +903,33 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,6 +954,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -906,7 +974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -931,20 +999,55 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2217,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B3222-C801-E043-841A-9324DF72711D}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D8"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3028,362 +3131,1858 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C410A7-8855-C745-A45F-66147B214673}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="15"/>
-    <col min="3" max="3" width="10.83203125" style="16"/>
-    <col min="4" max="4" width="14.1640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="17" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="17"/>
-    <col min="12" max="12" width="14.83203125" style="17" customWidth="1"/>
-    <col min="13" max="15" width="10.83203125" style="17"/>
-    <col min="16" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="14.83203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="22" customWidth="1"/>
+    <col min="4" max="13" width="11.5" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D1" s="14" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D1" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="K1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" spans="1:22" s="28" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="29">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27">
+        <v>373</v>
+      </c>
+      <c r="D3" s="35">
+        <v>-0.66853189999999996</v>
+      </c>
+      <c r="E3" s="35">
+        <v>1.6238931999999999</v>
+      </c>
+      <c r="F3" s="35">
+        <v>-0.92270399999999997</v>
+      </c>
+      <c r="G3" s="35">
+        <v>-1.1788794</v>
+      </c>
+      <c r="H3" s="35">
+        <v>-1.4527574000000001</v>
+      </c>
+      <c r="I3" s="28">
+        <v>-8.5519999999999996</v>
+      </c>
+      <c r="K3" s="28">
+        <v>0.1131438</v>
+      </c>
+      <c r="L3" s="28">
+        <v>-6.6764110000000002E-2</v>
+      </c>
+      <c r="M3" s="28">
+        <v>2.7238609999999999</v>
+      </c>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+    </row>
+    <row r="4" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="29"/>
+      <c r="C4" s="27"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+    </row>
+    <row r="5" spans="1:22" s="28" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="C5" s="25">
+        <f>B5*372</f>
+        <v>64.9512</v>
+      </c>
+      <c r="D5" s="28">
+        <v>-0.67932499999999996</v>
+      </c>
+      <c r="E5" s="28">
+        <v>2.2720600000000002</v>
+      </c>
+      <c r="F5" s="28">
+        <v>-0.85699879999999995</v>
+      </c>
+      <c r="G5" s="28">
+        <v>-4.025836</v>
+      </c>
+      <c r="H5" s="28">
+        <v>-4.0522869999999998</v>
+      </c>
+      <c r="K5" s="23">
+        <v>-0.39491900000000002</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.44189499999999998</v>
+      </c>
+      <c r="M5" s="23">
+        <v>1.9682539999999999</v>
+      </c>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+    </row>
+    <row r="6" spans="1:22" s="28" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="C6" s="25">
+        <f>B6*372</f>
+        <v>307.04880000000003</v>
+      </c>
+      <c r="D6" s="28">
+        <v>-5.4752539999999996</v>
+      </c>
+      <c r="E6" s="28">
+        <v>113.94135</v>
+      </c>
+      <c r="F6" s="28">
+        <v>-26.756679399999999</v>
+      </c>
+      <c r="G6" s="28">
+        <v>-5.4283219999999996</v>
+      </c>
+      <c r="H6" s="28">
+        <v>-16.605425</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.21262010000000001</v>
+      </c>
+      <c r="L6" s="23">
+        <v>-0.16999939999999999</v>
+      </c>
+      <c r="M6" s="23">
+        <v>2.8770229999999999</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+    </row>
+    <row r="7" spans="1:22" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+    </row>
+    <row r="8" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="23">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="C8" s="25">
+        <f>B8*372</f>
+        <v>62.682000000000002</v>
+      </c>
+      <c r="D8" s="23">
+        <v>-0.81164375</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1.68573631</v>
+      </c>
+      <c r="F8" s="23">
+        <v>-0.87571833399999999</v>
+      </c>
+      <c r="G8" s="23">
+        <v>-1.1968998</v>
+      </c>
+      <c r="H8" s="23">
+        <v>-1.9916098</v>
+      </c>
+      <c r="K8" s="18">
+        <v>-0.46752480000000002</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0.36279090000000003</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1.8301890000000001</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+    </row>
+    <row r="9" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="23">
+        <v>0.1807</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" ref="C9:C10" si="0">B9*372</f>
+        <v>67.220399999999998</v>
+      </c>
+      <c r="D9" s="23">
+        <v>-0.62508218999999998</v>
+      </c>
+      <c r="E9" s="23">
+        <v>5.1086729999999997E-2</v>
+      </c>
+      <c r="F9" s="23">
+        <v>6.1119060000000003E-3</v>
+      </c>
+      <c r="G9" s="23">
+        <v>4.0395859999999999E-2</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.21259839999999999</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.71151819999999999</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0.1596949</v>
+      </c>
+      <c r="M9" s="18">
+        <v>3.3214290000000002</v>
+      </c>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+    </row>
+    <row r="10" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>242.09760000000003</v>
+      </c>
+      <c r="D10" s="23">
+        <v>-9.9518990000000002E-2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.94401738000000002</v>
+      </c>
+      <c r="F10" s="23">
+        <v>-0.53775520099999996</v>
+      </c>
+      <c r="G10" s="23">
+        <v>5.7023169999999998E-2</v>
+      </c>
+      <c r="H10" s="23">
+        <v>-0.34409970000000001</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0.15533189999999999</v>
+      </c>
+      <c r="L10" s="18">
+        <v>-0.24507390000000001</v>
+      </c>
+      <c r="M10" s="18">
+        <v>2.8026909999999998</v>
+      </c>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+    </row>
+    <row r="11" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="29"/>
+      <c r="C11" s="27"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="24">
+        <v>0.1772</v>
+      </c>
+      <c r="C12" s="25">
+        <f>B12*372</f>
+        <v>65.918400000000005</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.65003739999999999</v>
+      </c>
+      <c r="E12" s="23">
+        <v>-2.271204</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.90132829000000003</v>
+      </c>
+      <c r="G12" s="23">
+        <v>3.95712149</v>
+      </c>
+      <c r="H12" s="23">
+        <v>3.8451149</v>
+      </c>
+      <c r="K12" s="23">
+        <v>-0.39437</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0.41982776999999999</v>
+      </c>
+      <c r="M12" s="23">
+        <v>2</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="24">
+        <v>0.3886</v>
+      </c>
+      <c r="C13" s="25">
+        <f t="shared" ref="C13:C15" si="1">B13*372</f>
+        <v>144.5592</v>
+      </c>
+      <c r="D13" s="23">
+        <v>-0.9654355</v>
+      </c>
+      <c r="E13" s="23">
+        <v>3.9748670000000002</v>
+      </c>
+      <c r="F13" s="23">
+        <v>-3.9763979999999997E-2</v>
+      </c>
+      <c r="G13" s="23">
+        <v>-1.2284141500000001</v>
+      </c>
+      <c r="H13" s="23">
+        <v>-1.9799268999999999</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0.16613530000000001</v>
+      </c>
+      <c r="L13" s="23">
+        <v>-0.29613158000000001</v>
+      </c>
+      <c r="M13" s="23">
+        <v>2.8913039999999999</v>
+      </c>
+      <c r="P13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="J1" s="17" t="s">
+      <c r="R13" s="16">
+        <v>3.0188679999999999</v>
+      </c>
+      <c r="S13" s="16">
+        <v>3.3207550000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="C14" s="25">
+        <f t="shared" si="1"/>
+        <v>53.01</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0.34968529999999998</v>
+      </c>
+      <c r="E14" s="23">
+        <v>-2.7225920000000001</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0.45885195000000001</v>
+      </c>
+      <c r="G14" s="23">
+        <v>-4.6759340000000003E-2</v>
+      </c>
+      <c r="H14" s="23">
+        <v>-0.32098959999999999</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0.1629139</v>
+      </c>
+      <c r="L14" s="23">
+        <v>-3.12401E-3</v>
+      </c>
+      <c r="M14" s="23">
+        <v>2.528302</v>
+      </c>
+      <c r="P14" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="R14" s="16">
+        <v>3.785714</v>
+      </c>
+      <c r="S14" s="16">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.29170000000000001</v>
+      </c>
+      <c r="C15" s="25">
+        <f t="shared" si="1"/>
+        <v>108.5124</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1.4220381</v>
+      </c>
+      <c r="E15" s="23">
+        <v>5.8705629999999998</v>
+      </c>
+      <c r="F15" s="23">
+        <v>-3.4632726699999998</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1.1389147500000001</v>
+      </c>
+      <c r="H15" s="23">
+        <v>-0.39116719999999999</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.2890162</v>
+      </c>
+      <c r="L15" s="23">
+        <v>-8.5659849999999996E-2</v>
+      </c>
+      <c r="M15" s="23">
+        <v>3</v>
+      </c>
+      <c r="P15" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="R15" s="16">
+        <v>3.524664</v>
+      </c>
+      <c r="S15" s="16">
+        <v>2.991031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P16" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B17" s="24">
+        <v>6.0839999999999998E-2</v>
+      </c>
+      <c r="C17" s="25">
+        <f>B17*372</f>
+        <v>22.632480000000001</v>
+      </c>
+      <c r="D17" s="23">
+        <v>2.32123539</v>
+      </c>
+      <c r="E17" s="23">
+        <v>-4.6548769999999999</v>
+      </c>
+      <c r="F17" s="23">
+        <v>0.92136468000000005</v>
+      </c>
+      <c r="G17" s="23">
+        <v>-3.0067344</v>
+      </c>
+      <c r="H17" s="23">
+        <v>-6.2134156999999997</v>
+      </c>
+      <c r="K17" s="23">
+        <v>0.2750032</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0.21139366000000001</v>
+      </c>
+      <c r="M17" s="23">
+        <v>2.4761899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0.16617000000000001</v>
+      </c>
+      <c r="C18" s="25">
+        <f t="shared" ref="C18:C45" si="2">B18*372</f>
+        <v>61.815240000000003</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.74676416000000001</v>
+      </c>
+      <c r="E18" s="23">
+        <v>-2.3710499999999999</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.99741162000000005</v>
+      </c>
+      <c r="G18" s="23">
+        <v>4.4267211</v>
+      </c>
+      <c r="H18" s="23">
+        <v>4.3217575999999998</v>
+      </c>
+      <c r="K18" s="23">
+        <v>-0.3355438</v>
+      </c>
+      <c r="L18" s="23">
+        <v>0.41067906999999998</v>
+      </c>
+      <c r="M18" s="23">
+        <v>2.0163929999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="24">
+        <v>0.37426999999999999</v>
+      </c>
+      <c r="C19" s="25">
+        <f t="shared" si="2"/>
+        <v>139.22844000000001</v>
+      </c>
+      <c r="D19" s="23">
+        <v>-0.70264548999999998</v>
+      </c>
+      <c r="E19" s="23">
+        <v>3.3858820000000001</v>
+      </c>
+      <c r="F19" s="23">
+        <v>-1.5988849999999999E-2</v>
+      </c>
+      <c r="G19" s="23">
+        <v>-1.4732303</v>
+      </c>
+      <c r="H19" s="23">
+        <v>-2.4122515999999998</v>
+      </c>
+      <c r="K19" s="23">
+        <v>0.10166699999999999</v>
+      </c>
+      <c r="L19" s="23">
+        <v>-0.31355471000000001</v>
+      </c>
+      <c r="M19" s="23">
+        <v>2.860465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="24">
+        <v>6.5839999999999996E-2</v>
+      </c>
+      <c r="C20" s="25">
+        <f t="shared" si="2"/>
+        <v>24.492479999999997</v>
+      </c>
+      <c r="D20" s="23">
+        <v>2.005316E-2</v>
+      </c>
+      <c r="E20" s="23">
+        <v>-1.744132</v>
+      </c>
+      <c r="F20" s="23">
+        <v>0.19820020999999999</v>
+      </c>
+      <c r="G20" s="23">
+        <v>0.46021869999999998</v>
+      </c>
+      <c r="H20" s="23">
+        <v>0.3921712</v>
+      </c>
+      <c r="K20" s="23">
+        <v>0.34362199999999998</v>
+      </c>
+      <c r="L20" s="23">
+        <v>6.6204639999999995E-2</v>
+      </c>
+      <c r="M20" s="23">
+        <v>2.714286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0.33289000000000002</v>
+      </c>
+      <c r="C21" s="25">
+        <f t="shared" si="2"/>
+        <v>123.83508</v>
+      </c>
+      <c r="D21" s="23">
+        <v>3.8566001499999998</v>
+      </c>
+      <c r="E21" s="23">
+        <v>23.57443</v>
+      </c>
+      <c r="F21" s="23">
+        <v>-11.92756196</v>
+      </c>
+      <c r="G21" s="23">
+        <v>4.3584652999999998</v>
+      </c>
+      <c r="H21" s="23">
+        <v>-2.027676</v>
+      </c>
+      <c r="K21" s="23">
+        <v>0.24643889999999999</v>
+      </c>
+      <c r="L21" s="23">
+        <v>-0.11719027</v>
+      </c>
+      <c r="M21" s="23">
+        <v>2.9548869999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0.1138</v>
+      </c>
+      <c r="C23" s="25">
+        <f t="shared" si="2"/>
+        <v>42.333599999999997</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.25076979999999999</v>
+      </c>
+      <c r="E23" s="23">
+        <v>-2.357056</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0.37928098999999998</v>
+      </c>
+      <c r="G23" s="23">
+        <v>0.1359089</v>
+      </c>
+      <c r="H23" s="23">
+        <v>-1.5020220000000001E-2</v>
+      </c>
+      <c r="K23" s="23">
+        <v>0.27616790000000002</v>
+      </c>
+      <c r="L23" s="23">
+        <v>1.022181E-2</v>
+      </c>
+      <c r="M23" s="23">
+        <v>2.4186049999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="24">
+        <v>0.27533000000000002</v>
+      </c>
+      <c r="C24" s="25">
+        <f t="shared" si="2"/>
+        <v>102.42276000000001</v>
+      </c>
+      <c r="D24" s="23">
+        <v>1.4354496000000001</v>
+      </c>
+      <c r="E24" s="23">
+        <v>7.5009430000000004</v>
+      </c>
+      <c r="F24" s="23">
+        <v>-4.2275588800000001</v>
+      </c>
+      <c r="G24" s="23">
+        <v>3.0675769000000002</v>
+      </c>
+      <c r="H24" s="23">
+        <v>0.21421318</v>
+      </c>
+      <c r="K24" s="23">
+        <v>0.3094634</v>
+      </c>
+      <c r="L24" s="23">
+        <v>-1.429426E-2</v>
+      </c>
+      <c r="M24" s="23">
+        <v>3</v>
+      </c>
+      <c r="N24" s="33"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="24">
+        <v>4.3029999999999999E-2</v>
+      </c>
+      <c r="C25" s="25">
+        <f t="shared" si="2"/>
+        <v>16.007159999999999</v>
+      </c>
+      <c r="D25" s="23">
+        <v>-2.7023818999999998</v>
+      </c>
+      <c r="E25" s="23">
+        <v>-10.067218</v>
+      </c>
+      <c r="F25" s="23">
+        <v>3.1597673899999998</v>
+      </c>
+      <c r="G25" s="23">
+        <v>22.169746700000001</v>
+      </c>
+      <c r="H25" s="23">
+        <v>10.68630374</v>
+      </c>
+      <c r="I25" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="23">
+        <v>-0.1223672</v>
+      </c>
+      <c r="L25" s="23">
+        <v>-0.45085044000000002</v>
+      </c>
+      <c r="M25" s="23">
+        <v>3</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="O25" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="24">
+        <v>0.13666</v>
+      </c>
+      <c r="C26" s="25">
+        <f t="shared" si="2"/>
+        <v>50.837519999999998</v>
+      </c>
+      <c r="D26" s="23">
+        <v>3.6202359999999998</v>
+      </c>
+      <c r="E26" s="23">
+        <v>-4.7230340000000002</v>
+      </c>
+      <c r="F26" s="23">
+        <v>4.3729748600000002</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0.8239727</v>
+      </c>
+      <c r="H26" s="23">
+        <v>-0.41000015000000001</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="23">
+        <v>-0.32882869999999997</v>
+      </c>
+      <c r="L26" s="23">
+        <v>0.34277181000000001</v>
+      </c>
+      <c r="M26" s="23">
+        <v>2.019231</v>
+      </c>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="24">
+        <v>0.35435</v>
+      </c>
+      <c r="C27" s="25">
+        <f t="shared" si="2"/>
+        <v>131.81819999999999</v>
+      </c>
+      <c r="D27" s="23">
+        <v>-0.85962179999999999</v>
+      </c>
+      <c r="E27" s="23">
+        <v>3.0149180000000002</v>
+      </c>
+      <c r="F27" s="23">
+        <v>-5.0602250000000001E-2</v>
+      </c>
+      <c r="G27" s="23">
+        <v>0.47560269999999999</v>
+      </c>
+      <c r="H27" s="23">
+        <v>-0.12046405</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="23">
+        <v>0.200539</v>
+      </c>
+      <c r="L27" s="23">
+        <v>-0.36694267000000003</v>
+      </c>
+      <c r="M27" s="23">
+        <v>2.8925619999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="24">
+        <v>7.6829999999999996E-2</v>
+      </c>
+      <c r="C28" s="25">
+        <f t="shared" si="2"/>
+        <v>28.580759999999998</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1.4084616999999999</v>
+      </c>
+      <c r="E28" s="23">
+        <v>-9.0305490000000006</v>
+      </c>
+      <c r="F28" s="23">
+        <v>0.77338675000000001</v>
+      </c>
+      <c r="G28" s="23">
+        <v>30.125465599999998</v>
+      </c>
+      <c r="H28" s="23">
+        <v>30.29497147</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="23">
+        <v>-0.35928579999999999</v>
+      </c>
+      <c r="L28" s="23">
+        <v>0.39762941000000002</v>
+      </c>
+      <c r="M28" s="23">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H29" s="37"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="24">
+        <v>0.11348999999999999</v>
+      </c>
+      <c r="C30" s="25">
+        <f t="shared" si="2"/>
+        <v>42.21828</v>
+      </c>
+      <c r="D30" s="35">
+        <v>0.22415979999999999</v>
+      </c>
+      <c r="E30" s="35">
+        <v>-2.3187140999999998</v>
+      </c>
+      <c r="F30" s="35">
+        <v>0.36089788</v>
+      </c>
+      <c r="G30" s="23">
+        <v>0.1717388</v>
+      </c>
+      <c r="H30" s="23">
+        <v>-3.0442879999999999E-2</v>
+      </c>
+      <c r="K30" s="35">
+        <v>0.31262590000000001</v>
+      </c>
+      <c r="L30" s="35">
+        <v>3.9737010000000003E-2</v>
+      </c>
+      <c r="M30" s="35">
+        <v>2.4666670000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="24">
+        <v>9.078E-2</v>
+      </c>
+      <c r="C31" s="25">
+        <f t="shared" si="2"/>
+        <v>33.770159999999997</v>
+      </c>
+      <c r="D31" s="35">
+        <v>0.1581523</v>
+      </c>
+      <c r="E31" s="35">
+        <v>-6.7056893000000004</v>
+      </c>
+      <c r="F31" s="35">
+        <v>0.79957407000000003</v>
+      </c>
+      <c r="G31" s="35">
+        <v>19.2014587</v>
+      </c>
+      <c r="H31" s="35">
+        <v>17.0466354</v>
+      </c>
+      <c r="K31" s="35">
+        <v>-0.42647750000000001</v>
+      </c>
+      <c r="L31" s="35">
+        <v>3.1146159999999999E-2</v>
+      </c>
+      <c r="M31" s="35">
+        <v>2.4571429999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="24">
+        <v>2.879E-2</v>
+      </c>
+      <c r="C32" s="25">
+        <f t="shared" si="2"/>
+        <v>10.70988</v>
+      </c>
+      <c r="D32" s="23">
+        <v>-0.59305940000000001</v>
+      </c>
+      <c r="E32" s="23">
+        <v>-0.68022950000000004</v>
+      </c>
+      <c r="F32" s="23">
+        <v>1.22722822</v>
+      </c>
+      <c r="G32" s="23">
+        <v>-1.6992697999999999</v>
+      </c>
+      <c r="H32" s="23">
+        <v>-2.287148E-2</v>
+      </c>
+      <c r="K32" s="35">
+        <v>2.9524000000000002E-2</v>
+      </c>
+      <c r="L32" s="35">
+        <v>0.61302255000000005</v>
+      </c>
+      <c r="M32" s="35">
+        <v>2.1666669999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="24">
+        <v>2.0449999999999999E-2</v>
+      </c>
+      <c r="C33" s="25">
+        <f t="shared" si="2"/>
+        <v>7.6074000000000002</v>
+      </c>
+      <c r="D33" s="23">
+        <v>3.3768026</v>
+      </c>
+      <c r="E33" s="23">
+        <v>-1.7289140000000001</v>
+      </c>
+      <c r="F33" s="23">
+        <v>-2.0964038500000002</v>
+      </c>
+      <c r="G33" s="23">
+        <v>-10.7538818</v>
+      </c>
+      <c r="H33" s="23">
+        <v>8.6084705800000005</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="J33" s="36"/>
+      <c r="K33" s="35">
+        <v>0.21800259999999999</v>
+      </c>
+      <c r="L33" s="35">
+        <v>8.9373839999999996E-2</v>
+      </c>
+      <c r="M33" s="35">
+        <v>2.8333330000000001</v>
+      </c>
+      <c r="N33" s="35"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="24">
+        <v>0.33734999999999998</v>
+      </c>
+      <c r="C34" s="25">
+        <f t="shared" si="2"/>
+        <v>125.49419999999999</v>
+      </c>
+      <c r="D34" s="23">
+        <v>-1.1445928999999999</v>
+      </c>
+      <c r="E34" s="23">
+        <v>3.7526755000000001</v>
+      </c>
+      <c r="F34" s="23">
+        <v>-2.8238869999999999E-2</v>
+      </c>
+      <c r="G34" s="23">
+        <v>1.2544550000000001</v>
+      </c>
+      <c r="H34" s="23">
+        <v>6.8984069999999995E-2</v>
+      </c>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="35">
+        <v>0.23521059999999999</v>
+      </c>
+      <c r="L34" s="35">
+        <v>-0.37363034000000001</v>
+      </c>
+      <c r="M34" s="35">
+        <v>2.9230770000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="24">
+        <v>0.29053000000000001</v>
+      </c>
+      <c r="C35" s="25">
+        <f t="shared" si="2"/>
+        <v>108.07716000000001</v>
+      </c>
+      <c r="D35" s="23">
+        <v>1.3261801</v>
+      </c>
+      <c r="E35" s="23">
+        <v>7.6820792999999998</v>
+      </c>
+      <c r="F35" s="23">
+        <v>-3.9361673599999998</v>
+      </c>
+      <c r="G35" s="23">
+        <v>1.2434616999999999</v>
+      </c>
+      <c r="H35" s="23">
+        <v>-0.31984806999999998</v>
+      </c>
+      <c r="K35" s="35">
+        <v>0.29808760000000001</v>
+      </c>
+      <c r="L35" s="35">
+        <v>-8.4209590000000001E-2</v>
+      </c>
+      <c r="M35" s="35">
+        <v>3.0530970000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="24">
+        <v>0.11862</v>
+      </c>
+      <c r="C36" s="25">
+        <f t="shared" si="2"/>
+        <v>44.126640000000002</v>
+      </c>
+      <c r="D36" s="23">
+        <v>5.9436757</v>
+      </c>
+      <c r="E36" s="23">
+        <v>-7.6355196000000003</v>
+      </c>
+      <c r="F36" s="23">
+        <v>3.57928997</v>
+      </c>
+      <c r="G36" s="23">
+        <v>7.4922553000000001</v>
+      </c>
+      <c r="H36" s="23">
+        <v>7.4616894699999996</v>
+      </c>
+      <c r="K36" s="35">
+        <v>-0.48153580000000001</v>
+      </c>
+      <c r="L36" s="35">
+        <v>0.40384534</v>
+      </c>
+      <c r="M36" s="35">
+        <v>1.954545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D37" s="37"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="24">
+        <v>0.10503</v>
+      </c>
+      <c r="C38" s="25">
+        <f t="shared" si="2"/>
+        <v>39.071159999999999</v>
+      </c>
+      <c r="D38" s="35">
+        <v>0.2193891</v>
+      </c>
+      <c r="E38" s="35">
+        <v>-2.3026916000000002</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0.350594287</v>
+      </c>
+      <c r="G38" s="23">
+        <v>0.19949040000000001</v>
+      </c>
+      <c r="H38" s="23">
+        <v>-1.9675120000000001E-2</v>
+      </c>
+      <c r="K38" s="35">
+        <v>0.32830860000000001</v>
+      </c>
+      <c r="L38" s="35">
+        <v>4.2920239999999998E-2</v>
+      </c>
+      <c r="M38" s="35">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="30">
+        <v>7.7240000000000003E-2</v>
+      </c>
+      <c r="C39" s="31">
+        <f t="shared" si="2"/>
+        <v>28.733280000000001</v>
+      </c>
+      <c r="D39" s="32">
+        <v>27.708819699999999</v>
+      </c>
+      <c r="E39" s="32">
+        <v>-298.72856589999998</v>
+      </c>
+      <c r="F39" s="32">
+        <v>34.973816958</v>
+      </c>
+      <c r="G39" s="32">
+        <v>852.44278859999997</v>
+      </c>
+      <c r="H39" s="32">
+        <v>756.79819738000003</v>
+      </c>
+      <c r="K39" s="38">
+        <v>-0.37386550000000002</v>
+      </c>
+      <c r="L39" s="38">
+        <v>8.3577239999999997E-2</v>
+      </c>
+      <c r="M39" s="38">
+        <v>2.3666670000000001</v>
+      </c>
+      <c r="N39" s="39"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="24">
+        <v>2.8639999999999999E-2</v>
+      </c>
+      <c r="C40" s="25">
+        <f t="shared" si="2"/>
+        <v>10.65408</v>
+      </c>
+      <c r="D40" s="23">
+        <v>-0.58546240000000005</v>
+      </c>
+      <c r="E40" s="23">
+        <v>-0.67317839999999995</v>
+      </c>
+      <c r="F40" s="23">
+        <v>1.217110769</v>
+      </c>
+      <c r="G40" s="23">
+        <v>-1.6754396</v>
+      </c>
+      <c r="H40" s="23">
+        <v>-6.410209E-2</v>
+      </c>
+      <c r="K40" s="35">
+        <v>2.9524000000000002E-2</v>
+      </c>
+      <c r="L40" s="35">
+        <v>0.61302255000000005</v>
+      </c>
+      <c r="M40" s="35">
+        <v>2.1666669999999999</v>
+      </c>
+      <c r="N40" s="40"/>
+    </row>
+    <row r="41" spans="1:15" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="30">
+        <v>3.031E-2</v>
+      </c>
+      <c r="C41" s="31">
+        <f t="shared" si="2"/>
+        <v>11.275320000000001</v>
+      </c>
+      <c r="D41" s="32">
+        <v>5.8385119000000003</v>
+      </c>
+      <c r="E41" s="32">
+        <v>1.6837252</v>
+      </c>
+      <c r="F41" s="32">
+        <v>-4.5853849020000004</v>
+      </c>
+      <c r="G41" s="32">
+        <v>-28.336590699999999</v>
+      </c>
+      <c r="H41" s="32">
+        <v>11.244120710000001</v>
+      </c>
+      <c r="K41" s="38">
+        <v>0.23304610000000001</v>
+      </c>
+      <c r="L41" s="38">
+        <v>-7.1711460000000005E-2</v>
+      </c>
+      <c r="M41" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="N41" s="39"/>
+    </row>
+    <row r="42" spans="1:15" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="52">
+        <v>0.27144000000000001</v>
+      </c>
+      <c r="C42" s="49">
+        <f t="shared" si="2"/>
+        <v>100.97568000000001</v>
+      </c>
+      <c r="D42" s="50">
+        <v>-0.91630210000000001</v>
+      </c>
+      <c r="E42" s="50">
+        <v>1.9662499</v>
+      </c>
+      <c r="F42" s="50">
+        <v>-4.5315287000000003E-2</v>
+      </c>
+      <c r="G42" s="50">
+        <v>0.40309440000000002</v>
+      </c>
+      <c r="H42" s="50">
+        <v>2.6782920000000002E-2</v>
+      </c>
+      <c r="K42" s="51">
+        <v>0.33662449999999999</v>
+      </c>
+      <c r="L42" s="51">
+        <v>-0.43018097</v>
+      </c>
+      <c r="M42" s="51">
+        <v>3.0204080000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="24">
+        <v>0.27956999999999999</v>
+      </c>
+      <c r="C43" s="25">
+        <f t="shared" si="2"/>
+        <v>104.00004</v>
+      </c>
+      <c r="D43" s="23">
+        <v>1.1665354999999999</v>
+      </c>
+      <c r="E43" s="23">
+        <v>8.6124498000000003</v>
+      </c>
+      <c r="F43" s="23">
+        <v>-4.2980492220000004</v>
+      </c>
+      <c r="G43" s="35">
+        <v>1.3878337999999999</v>
+      </c>
+      <c r="H43" s="35">
+        <v>-0.48534180999999998</v>
+      </c>
+      <c r="K43" s="35">
+        <v>0.30520720000000001</v>
+      </c>
+      <c r="L43" s="35">
+        <v>-6.0765010000000001E-2</v>
+      </c>
+      <c r="M43" s="35">
+        <v>3.045045</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="24">
+        <v>0.10996</v>
+      </c>
+      <c r="C44" s="25">
+        <f t="shared" si="2"/>
+        <v>40.905120000000004</v>
+      </c>
+      <c r="D44" s="23">
+        <v>2.2504762</v>
+      </c>
+      <c r="E44" s="23">
+        <v>-3.7324407000000002</v>
+      </c>
+      <c r="F44" s="23">
+        <v>1.4124592520000001</v>
+      </c>
+      <c r="G44" s="35">
+        <v>4.4005285000000001</v>
+      </c>
+      <c r="H44" s="35">
+        <v>4.4087141399999998</v>
+      </c>
+      <c r="K44" s="35">
+        <v>-0.59057530000000003</v>
+      </c>
+      <c r="L44" s="35">
+        <v>0.48722113</v>
+      </c>
+      <c r="M44" s="35">
+        <v>1.825</v>
+      </c>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="24">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="C45" s="25">
+        <f t="shared" si="2"/>
+        <v>36.381599999999999</v>
+      </c>
+      <c r="D45" s="23">
+        <v>-0.51497669999999995</v>
+      </c>
+      <c r="E45" s="23">
+        <v>-0.88189390000000001</v>
+      </c>
+      <c r="F45" s="23">
+        <v>8.1095790000000004E-3</v>
+      </c>
+      <c r="G45" s="35">
+        <v>-0.94835170000000002</v>
+      </c>
+      <c r="H45" s="35">
+        <v>3.9275579999999997E-2</v>
+      </c>
+      <c r="K45" s="35">
+        <v>-0.26490409999999998</v>
+      </c>
+      <c r="L45" s="35">
+        <v>-0.21468145999999999</v>
+      </c>
+      <c r="M45" s="35">
+        <v>2.4137930000000001</v>
+      </c>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+    </row>
+    <row r="47" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H48" s="37"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+    </row>
+    <row r="49" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="29">
+        <v>1</v>
+      </c>
+      <c r="C49" s="27">
+        <v>333</v>
+      </c>
+      <c r="D49" s="35">
+        <v>-0.65139999999999998</v>
+      </c>
+      <c r="E49" s="35">
+        <v>1.681</v>
+      </c>
+      <c r="F49" s="35">
+        <v>-0.91439999999999999</v>
+      </c>
+      <c r="G49" s="35">
+        <v>-5.4219999999999997E-2</v>
+      </c>
+      <c r="H49" s="35">
+        <v>-0.67620000000000002</v>
+      </c>
+      <c r="K49" s="28">
+        <v>0.1131438</v>
+      </c>
+      <c r="L49" s="28">
+        <v>-6.6764110000000002E-2</v>
+      </c>
+      <c r="M49" s="28">
+        <v>2.7238609999999999</v>
+      </c>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H50" s="37"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="24">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="C51" s="22">
+        <f>B51*$C$49</f>
+        <v>123.50970000000001</v>
+      </c>
+      <c r="D51" s="18">
+        <v>1.0531843000000001</v>
+      </c>
+      <c r="E51" s="19">
+        <v>-3.5738789999999998</v>
+      </c>
+      <c r="F51" s="19">
+        <v>-3.3538180000000002E-3</v>
+      </c>
+      <c r="G51" s="19">
+        <v>-1.120215</v>
+      </c>
+      <c r="H51" s="19">
+        <v>-0.32345289999999999</v>
+      </c>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="18">
+        <v>0.2328057</v>
+      </c>
+      <c r="L51" s="18">
+        <v>-0.33728045000000001</v>
+      </c>
+      <c r="M51" s="18">
+        <v>2.9035090000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="24">
+        <v>0.4677</v>
+      </c>
+      <c r="C52" s="22">
+        <f t="shared" ref="C52:C53" si="3">B52*$C$49</f>
+        <v>155.7441</v>
+      </c>
+      <c r="D52" s="23">
+        <v>0.40967039999999999</v>
+      </c>
+      <c r="E52" s="23">
+        <v>6.9222169999999998</v>
+      </c>
+      <c r="F52" s="35">
+        <v>-2.6134298130000002</v>
+      </c>
+      <c r="G52" s="35">
+        <v>1.040473</v>
+      </c>
+      <c r="H52" s="35">
+        <v>-0.36017169999999998</v>
+      </c>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="18">
+        <v>0.27162849999999999</v>
+      </c>
+      <c r="L52" s="18">
+        <v>-6.1046709999999997E-2</v>
+      </c>
+      <c r="M52" s="18">
+        <v>2.8787880000000001</v>
+      </c>
+      <c r="N52" s="36"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="24">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="C53" s="22">
+        <f t="shared" si="3"/>
+        <v>53.746199999999995</v>
+      </c>
+      <c r="D53" s="23">
+        <v>-1.5528918</v>
+      </c>
+      <c r="E53" s="23">
+        <v>3.007571</v>
+      </c>
+      <c r="F53" s="35">
+        <v>-1.5539214180000001</v>
+      </c>
+      <c r="G53" s="35">
+        <v>-2.0865499999999999</v>
+      </c>
+      <c r="H53" s="35">
+        <v>-3.4246805999999999</v>
+      </c>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="18">
+        <v>-0.40855350000000001</v>
+      </c>
+      <c r="L53" s="18">
+        <v>0.41588736999999998</v>
+      </c>
+      <c r="M53" s="18">
+        <v>1.924528</v>
+      </c>
+      <c r="N53" s="36"/>
+      <c r="O53" s="35"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E54" s="21"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="N56" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="25" t="s">
+      <c r="O56" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="24">
-        <v>0.1772</v>
-      </c>
-      <c r="C3" s="21">
-        <f>B3*372</f>
-        <v>65.918400000000005</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0.65003739999999999</v>
-      </c>
-      <c r="E3" s="17">
-        <v>-2.271204</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0.90132829000000003</v>
-      </c>
-      <c r="G3" s="17">
-        <v>3.95712149</v>
-      </c>
-      <c r="H3" s="17">
-        <v>3.8451149</v>
-      </c>
-      <c r="J3" s="18">
-        <v>-0.39437</v>
-      </c>
-      <c r="K3" s="18">
-        <v>0.41982776999999999</v>
-      </c>
-      <c r="L3" s="18">
-        <v>2</v>
-      </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="24">
-        <v>0.3886</v>
-      </c>
-      <c r="C4" s="21">
-        <f t="shared" ref="C4:C6" si="0">B4*372</f>
-        <v>144.5592</v>
-      </c>
-      <c r="D4" s="17">
-        <v>-0.9654355</v>
-      </c>
-      <c r="E4" s="17">
-        <v>3.9748670000000002</v>
-      </c>
-      <c r="F4" s="17">
-        <v>-3.9763979999999997E-2</v>
-      </c>
-      <c r="G4" s="17">
-        <v>-1.2284141500000001</v>
-      </c>
-      <c r="H4" s="17">
-        <v>-1.9799268999999999</v>
-      </c>
-      <c r="J4" s="18">
-        <v>0.16613530000000001</v>
-      </c>
-      <c r="K4" s="18">
-        <v>-0.29613158000000001</v>
-      </c>
-      <c r="L4" s="18">
-        <v>2.8913039999999999</v>
-      </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19">
-        <v>1</v>
-      </c>
-      <c r="P4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="24">
-        <v>0.14249999999999999</v>
-      </c>
-      <c r="C5" s="21">
-        <f t="shared" si="0"/>
-        <v>53.01</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0.34968529999999998</v>
-      </c>
-      <c r="E5" s="17">
-        <v>-2.7225920000000001</v>
-      </c>
-      <c r="F5" s="17">
-        <v>0.45885195000000001</v>
-      </c>
-      <c r="G5" s="17">
-        <v>-4.6759340000000003E-2</v>
-      </c>
-      <c r="H5" s="17">
-        <v>-0.32098959999999999</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0.1629139</v>
-      </c>
-      <c r="K5" s="18">
-        <v>-3.12401E-3</v>
-      </c>
-      <c r="L5" s="18">
-        <v>2.528302</v>
-      </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19">
-        <v>2</v>
-      </c>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="24">
-        <v>0.29170000000000001</v>
-      </c>
-      <c r="C6" s="21">
-        <f t="shared" si="0"/>
-        <v>108.5124</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1.4220381</v>
-      </c>
-      <c r="E6" s="17">
-        <v>5.8705629999999998</v>
-      </c>
-      <c r="F6" s="17">
-        <v>-3.4632726699999998</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1.1389147500000001</v>
-      </c>
-      <c r="H6" s="17">
-        <v>-0.39116719999999999</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0.2890162</v>
-      </c>
-      <c r="K6" s="18">
-        <v>-8.5659849999999996E-2</v>
-      </c>
-      <c r="L6" s="18">
-        <v>3</v>
-      </c>
-      <c r="O6" s="19">
-        <v>3</v>
-      </c>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O7" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="J21" s="18"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="P56" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G61" s="37"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G62" s="37"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
